--- a/importer/management/commands/tests/fixtures/trade_disputes/existing_measures.xlsx
+++ b/importer/management/commands/tests/fixtures/trade_disputes/existing_measures.xlsx
@@ -120,12 +120,6 @@
     <t>10.00% + 0.05%</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>R0000001</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>FN004</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -199,8 +199,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -222,7 +224,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -230,6 +232,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -237,6 +240,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,7 +578,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -706,13 +710,13 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="1">
         <v>43952</v>
@@ -721,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
         <v>29</v>
       </c>
       <c r="AB2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
         <v>31</v>
@@ -747,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -762,13 +766,13 @@
         <v>0.1</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N3">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="1">
         <v>43952</v>
@@ -777,13 +781,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s">
         <v>29</v>
       </c>
       <c r="AB3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="2">
         <v>0.1</v>
@@ -803,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -818,13 +822,13 @@
         <v>0.05</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N4">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="1">
         <v>43952</v>
@@ -833,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
         <v>29</v>
       </c>
       <c r="AB4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC4" s="2">
         <v>0.1</v>
